--- a/需求分类结果/关于Bugzilla的数据汇总/Developer Tools- Canvas Debugger.xlsx
+++ b/需求分类结果/关于Bugzilla的数据汇总/Developer Tools- Canvas Debugger.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R9d00d9f00db14815"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>字段1_文本</t>
   </si>
@@ -479,24 +482,202 @@
   </si>
   <si>
     <t>Sun 17:23</t>
+  </si>
+  <si>
+    <t>处理多画布元素时会出问题</t>
+  </si>
+  <si>
+    <t>画布快照崩溃</t>
+  </si>
+  <si>
+    <t>不能删除文件</t>
+  </si>
+  <si>
+    <t>能够检验自定义的mip</t>
+  </si>
+  <si>
+    <t>收集关于weblib的信息</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,11 +686,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3" tint="0"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -519,44 +887,602 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080" tint="0"/>
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0"/>
-    <xf numFmtId="0" fontId="1" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" defaultColWidth="20"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="9.22222222222222" customWidth="1"/>
+    <col min="5" max="5" width="125.111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -602,7 +1528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -625,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -648,7 +1574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -671,7 +1597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -694,7 +1620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -717,7 +1643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -740,7 +1666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -763,7 +1689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -786,7 +1712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -809,7 +1735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -832,7 +1758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -855,7 +1781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -878,7 +1804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -901,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -924,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -947,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
@@ -970,7 +1896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -993,7 +1919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1016,7 +1942,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
@@ -1039,7 +1965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -1062,7 +1988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -1085,7 +2011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
@@ -1108,7 +2034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -1131,7 +2057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -1154,7 +2080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>91</v>
       </c>
@@ -1177,7 +2103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1200,7 +2126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
@@ -1223,7 +2149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -1246,7 +2172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -1269,7 +2195,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>107</v>
       </c>
@@ -1292,7 +2218,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -1315,7 +2241,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>115</v>
       </c>
@@ -1338,7 +2264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>118</v>
       </c>
@@ -1361,7 +2287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -1384,7 +2310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>126</v>
       </c>
@@ -1407,7 +2333,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>130</v>
       </c>
@@ -1430,7 +2356,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>133</v>
       </c>
@@ -1453,7 +2379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>136</v>
       </c>
@@ -1476,7 +2402,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>140</v>
       </c>
@@ -1499,7 +2425,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>144</v>
       </c>
@@ -1522,7 +2448,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>148</v>
       </c>
@@ -1545,7 +2471,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>152</v>
       </c>
@@ -1568,7 +2494,33 @@
         <v>155</v>
       </c>
     </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>